--- a/Trabalho/Exercicio2.xlsx
+++ b/Trabalho/Exercicio2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\Documents\GitHub\EXERCICIOS\Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3E2670-2BF2-447D-B95D-1670D4B47864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C1E7E3-BAEA-4F63-94B0-779C499A3EE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,31 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={5C51E2D6-A056-4F91-9D43-A10275822D00}</author>
+    <author>tc={6294B2FA-F1B0-4E6E-83B6-3C63747A0C19}</author>
+    <author>tc={188C3ACB-6522-4E66-A042-CD4B84E23E27}</author>
   </authors>
   <commentList>
     <comment ref="C4" authorId="0" shapeId="0" xr:uid="{5C51E2D6-A056-4F91-9D43-A10275822D00}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    insira o valor do saque
+Responder:
+    saque</t>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="1" shapeId="0" xr:uid="{6294B2FA-F1B0-4E6E-83B6-3C63747A0C19}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    insira o valor do saque
+Responder:
+    saque</t>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="2" shapeId="0" xr:uid="{188C3ACB-6522-4E66-A042-CD4B84E23E27}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -53,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
   <si>
     <t>resto</t>
   </si>
@@ -74,7 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +111,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -174,6 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -183,7 +212,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,15 +504,27 @@
   <threadedComment ref="C4" dT="2020-04-21T13:49:29.24" personId="{9DC7D72D-0040-433B-BCFF-E6E97FE9DF99}" id="{E90BD210-C820-4BD6-946A-E6A732473E4D}" parentId="{5C51E2D6-A056-4F91-9D43-A10275822D00}">
     <text>saque</text>
   </threadedComment>
+  <threadedComment ref="H4" dT="2020-04-21T13:49:19.11" personId="{9DC7D72D-0040-433B-BCFF-E6E97FE9DF99}" id="{6294B2FA-F1B0-4E6E-83B6-3C63747A0C19}">
+    <text>insira o valor do saque</text>
+  </threadedComment>
+  <threadedComment ref="H4" dT="2020-04-21T13:49:29.24" personId="{9DC7D72D-0040-433B-BCFF-E6E97FE9DF99}" id="{86599831-BA58-4C7C-94AA-FFD7BBF48B4E}" parentId="{6294B2FA-F1B0-4E6E-83B6-3C63747A0C19}">
+    <text>saque</text>
+  </threadedComment>
+  <threadedComment ref="M4" dT="2020-04-21T13:49:19.11" personId="{9DC7D72D-0040-433B-BCFF-E6E97FE9DF99}" id="{188C3ACB-6522-4E66-A042-CD4B84E23E27}">
+    <text>insira o valor do saque</text>
+  </threadedComment>
+  <threadedComment ref="M4" dT="2020-04-21T13:49:29.24" personId="{9DC7D72D-0040-433B-BCFF-E6E97FE9DF99}" id="{A682A141-13E6-466C-A34F-E0628B289B50}" parentId="{188C3ACB-6522-4E66-A042-CD4B84E23E27}">
+    <text>saque</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:H16"/>
+  <dimension ref="B4:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,17 +532,33 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>999</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>392</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="L4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="5">
+        <v>256</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -515,12 +571,36 @@
       <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>100</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <f>MOD(C4,B6)</f>
         <v>99</v>
       </c>
@@ -532,8 +612,38 @@
         <f>D6/B6</f>
         <v>9</v>
       </c>
+      <c r="G6" s="2">
+        <v>100</v>
+      </c>
+      <c r="H6" s="4">
+        <f>MOD(H4,G6)</f>
+        <v>92</v>
+      </c>
+      <c r="I6" s="2">
+        <f>H4-H6</f>
+        <v>300</v>
+      </c>
+      <c r="J6" s="2">
+        <f>I6/G6</f>
+        <v>3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>100</v>
+      </c>
+      <c r="M6" s="4">
+        <f>MOD(M4,L6)</f>
+        <v>56</v>
+      </c>
+      <c r="N6" s="2">
+        <f>M4-M6</f>
+        <v>200</v>
+      </c>
+      <c r="O6" s="2">
+        <f>N6/L6</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>10</v>
       </c>
@@ -549,8 +659,38 @@
         <f t="shared" ref="E7:E8" si="2">D7/B7</f>
         <v>9</v>
       </c>
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ref="H7:H8" si="3">MOD(H6,G7)</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" ref="I7:I8" si="4">H6-H7</f>
+        <v>90</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" ref="J7:J8" si="5">I7/G7</f>
+        <v>9</v>
+      </c>
+      <c r="L7" s="2">
+        <v>10</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" ref="M7:M8" si="6">MOD(M6,L7)</f>
+        <v>6</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" ref="N7:N8" si="7">M6-M7</f>
+        <v>50</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" ref="O7:O8" si="8">N7/L7</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -566,13 +706,42 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="2">
         <f>SUM(D6:D8)</f>
         <v>999</v>
@@ -581,17 +750,48 @@
         <f>SUM(E6:E8)</f>
         <v>27</v>
       </c>
+      <c r="G9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="2">
+        <f>SUM(I6:I8)</f>
+        <v>392</v>
+      </c>
+      <c r="J9" s="2">
+        <f>SUM(J6:J8)</f>
+        <v>14</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="2">
+        <f>SUM(N6:N8)</f>
+        <v>256</v>
+      </c>
+      <c r="O9" s="2">
+        <f>SUM(O6:O8)</f>
+        <v>13</v>
+      </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F16" s="3"/>
     </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J19" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="L9:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
